--- a/PV_ICE/baselines/SupportingMaterial/US_Installs_Harmonize_graphs.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/US_Installs_Harmonize_graphs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD2384-4BB7-4B5B-80A8-356698973326}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F085D14-A5CD-4B13-9201-2A0E9F940FC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{D931EBBB-F0C0-4C12-9066-9D55B5844573}"/>
   </bookViews>
@@ -1862,27 +1862,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$27</c:f>
+              <c:f>Sheet1!$B$4:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6676666666666602</c:v>
+                  <c:v>9.6676666670000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.6219999999999</c:v>
+                  <c:v>11.622</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.781000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.8846666666666</c:v>
+                  <c:v>16.884666670000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.926666666666598</c:v>
+                  <c:v>20.926666669999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>27.984999999999999</c:v>
@@ -1897,46 +1897,49 @@
                   <c:v>94.751999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88.664459999999906</c:v>
+                  <c:v>96.581173219999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.072199999999995</c:v>
+                  <c:v>98.21307161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>244.10485</c:v>
+                  <c:v>324.23274839999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>210.66864000000001</c:v>
+                  <c:v>314.58510869999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>252.73445000000001</c:v>
+                  <c:v>431.24480390000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>290.98082520000003</c:v>
+                  <c:v>719.84443759999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1452.4817129999999</c:v>
+                  <c:v>1781.377078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2533.7810196999999</c:v>
+                  <c:v>3064.1622809999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3003.4084203999901</c:v>
+                  <c:v>4037.4491130000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1871.9131253999999</c:v>
+                  <c:v>3722.1994850000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6080.7704693999904</c:v>
+                  <c:v>6834.3288130000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11626.661928</c:v>
+                  <c:v>12897.665950000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8437.4240279999995</c:v>
+                  <c:v>9784.5062149999994</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7762.0726259999901</c:v>
+                  <c:v>9352.5294479999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10949.78234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,10 +3122,10 @@
   <dimension ref="A1:AL1014"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ39" sqref="AJ39"/>
+      <selection pane="bottomRight" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3403,7 +3406,7 @@
         <v>1996</v>
       </c>
       <c r="B5">
-        <v>9.6676666666666602</v>
+        <v>9.6676666670000007</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -3437,7 +3440,7 @@
         <v>1997</v>
       </c>
       <c r="B6">
-        <v>11.6219999999999</v>
+        <v>11.622</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3507,7 +3510,7 @@
         <v>1999</v>
       </c>
       <c r="B8">
-        <v>16.8846666666666</v>
+        <v>16.884666670000001</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3543,7 +3546,7 @@
         <v>2000</v>
       </c>
       <c r="B9">
-        <v>20.926666666666598</v>
+        <v>20.926666669999999</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -3743,7 +3746,7 @@
         <v>2005</v>
       </c>
       <c r="B14">
-        <v>88.664459999999906</v>
+        <v>96.581173219999997</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -3783,7 +3786,7 @@
         <v>2006</v>
       </c>
       <c r="B15">
-        <v>82.072199999999995</v>
+        <v>98.21307161</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -3825,7 +3828,7 @@
         <v>2007</v>
       </c>
       <c r="B16">
-        <v>244.10485</v>
+        <v>324.23274839999999</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -3875,7 +3878,7 @@
         <v>2008</v>
       </c>
       <c r="B17">
-        <v>210.66864000000001</v>
+        <v>314.58510869999998</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
@@ -3925,7 +3928,7 @@
         <v>2009</v>
       </c>
       <c r="B18">
-        <v>252.73445000000001</v>
+        <v>431.24480390000002</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="16">
@@ -3977,7 +3980,7 @@
         <v>2010</v>
       </c>
       <c r="B19">
-        <v>290.98082520000003</v>
+        <v>719.84443759999999</v>
       </c>
       <c r="C19" s="27">
         <v>846.6277</v>
@@ -4033,7 +4036,7 @@
         <v>2011</v>
       </c>
       <c r="B20">
-        <v>1452.4817129999999</v>
+        <v>1781.377078</v>
       </c>
       <c r="C20" s="27">
         <v>1974.3762999999999</v>
@@ -4086,7 +4089,7 @@
         <v>2012</v>
       </c>
       <c r="B21">
-        <v>2533.7810196999999</v>
+        <v>3064.1622809999999</v>
       </c>
       <c r="C21" s="27">
         <v>3337.7269999999999</v>
@@ -4139,7 +4142,7 @@
         <v>2013</v>
       </c>
       <c r="B22">
-        <v>3003.4084203999901</v>
+        <v>4037.4491130000001</v>
       </c>
       <c r="C22" s="27">
         <v>4795.0722999999998</v>
@@ -4197,7 +4200,7 @@
         <v>2014</v>
       </c>
       <c r="B23">
-        <v>1871.9131253999999</v>
+        <v>3722.1994850000001</v>
       </c>
       <c r="C23" s="27">
         <v>6252.7870000000003</v>
@@ -4253,7 +4256,7 @@
         <v>2015</v>
       </c>
       <c r="B24">
-        <v>6080.7704693999904</v>
+        <v>6834.3288130000001</v>
       </c>
       <c r="C24" s="27">
         <v>7474.6532999999999</v>
@@ -4309,7 +4312,7 @@
         <v>2016</v>
       </c>
       <c r="B25">
-        <v>11626.661928</v>
+        <v>12897.665950000001</v>
       </c>
       <c r="C25" s="27">
         <v>15199.261</v>
@@ -4365,7 +4368,7 @@
         <v>2017</v>
       </c>
       <c r="B26">
-        <v>8437.4240279999995</v>
+        <v>9784.5062149999994</v>
       </c>
       <c r="C26" s="27">
         <v>10813.797</v>
@@ -4421,7 +4424,7 @@
         <v>2018</v>
       </c>
       <c r="B27">
-        <v>7762.0726259999901</v>
+        <v>9352.5294479999993</v>
       </c>
       <c r="C27" s="27">
         <v>10716.415000000001</v>
@@ -4476,7 +4479,9 @@
       <c r="A28" s="26">
         <v>2019</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="26">
+        <v>10949.78234</v>
+      </c>
       <c r="C28" s="28">
         <v>13351.832</v>
       </c>
